--- a/output/missing-values-Gender.xlsx
+++ b/output/missing-values-Gender.xlsx
@@ -12,12 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">pid</t>
   </si>
   <si>
     <t xml:space="preserve">Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0073</t>
   </si>
   <si>
     <t xml:space="preserve">TSH0661</t>
@@ -411,6 +417,18 @@
       </c>
       <c r="B7"/>
     </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
